--- a/II uzduotis.xlsx
+++ b/II uzduotis.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Indeksai uždėti ant: JobsRegister.kkTechnicianId</t>
   </si>
   <si>
-    <t> JobsRegister_Materials.jobsRegisterId</t>
-  </si>
-  <si>
-    <t> JobsRegister_Materials.jobsRegisterServiceId</t>
-  </si>
-  <si>
-    <t> JobsRegister_Services.serviceId</t>
+    <t>JobsRegister_Materials.jobsRegisterId</t>
+  </si>
+  <si>
+    <t>JobsRegister_Materials.jobsRegisterServiceId</t>
+  </si>
+  <si>
+    <t>JobsRegister_Services.serviceId</t>
   </si>
   <si>
     <t>3 sudėtingi select’ai (sumos, grupavimas, rūšiavimas)</t>
@@ -122,7 +122,7 @@
     <t>9.93s</t>
   </si>
   <si>
-    <t> UPDATE JobsRegister_Services js  
+    <t>UPDATE JobsRegister_Services js  
 JOIN( 
 SELECT js.jobsRegisterServiceId, SUM(jm.count) AS total 
 FROM JobsRegister_Materials jm 
@@ -152,7 +152,8 @@
     <t>4.23s</t>
   </si>
   <si>
-    <t>DELETE FROM JobsRegister_Services WHERE serviceId = 10</t>
+    <t>DELETE FROM JobsRegister_Services 
+WHERE serviceId = 10</t>
   </si>
   <si>
     <t>0.06s</t>
@@ -185,6 +186,12 @@
   <si>
     <t>LOAD DATA INFILE '/var/www/html/nfq/DBdata/data.csv' INTO TABLE JobsRegister_Services 
 FIELDS TERMINATED BY ',' ENCLOSED BY '"' LINES TERMINATED BY '\r\n' IGNORE 1 LINES;</t>
+  </si>
+  <si>
+    <t>IŠVADOS</t>
+  </si>
+  <si>
+    <t>Dėl duomenų įkėlimų ir ištrynimų galimi skirtingi duomenų kiekiai naudojant SELECT su indeksais ir be jų, tai galėjo įtakoti paklaidas. Pastebimai sutrumpėjo UPDATE trukmė, tai galėjo įtakoti tai, kad naudojant indeksus gaištama kur kas mažiau laiko surandant reikiamus įrašus. Gerokai sulėtėjo įrašų ištrinimas – tam įtakos galėjo turėti tai, kad trinant reikia ištrinti ne tik įrašus, bet ir atmintį apie juos saugomą indeksuose. Nustebino tai, kad INSERT užklausos nors ir sulėtėjo, nesulėtėjo labai stipriai, ko buvo galima tikėtis įvertinant tai, kad su duomenimis turi būti atliekami papildomi veiksmai. Viską įvertinus galima būtų pasakyti, kad indeksus labiausiai verta naudoti dėl jų suteikiamų galimybių naudojant UPDATE užklausas.</t>
   </si>
 </sst>
 </file>
@@ -194,11 +201,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -214,6 +222,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,7 +290,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -295,10 +322,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D5:H18"/>
+  <dimension ref="D5:H25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -306,7 +333,7 @@
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.530612244898"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.8928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8010204081633"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.219387755102"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.6632653061224"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.01020408163265"/>
@@ -358,14 +385,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -375,9 +402,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
+    <row r="10" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -387,9 +414,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="1"/>
-      <c r="F11" s="2" t="s">
+    <row r="11" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -399,11 +426,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="1" t="s">
+    <row r="12" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -413,9 +440,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
+    <row r="13" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -425,11 +452,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="1" t="s">
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -439,9 +466,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+    <row r="15" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -451,11 +478,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="1" t="s">
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -466,7 +493,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="1"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
@@ -477,15 +504,69 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="1"/>
-      <c r="F18" s="2" t="s">
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:H20"/>
+    <mergeCell ref="E21:H25"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
